--- a/data/pca/factorExposure/factorExposure_2009-09-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01802475365950893</v>
+        <v>0.01670359453077877</v>
       </c>
       <c r="C2">
-        <v>0.001570735261359709</v>
+        <v>-0.0009229634361822153</v>
       </c>
       <c r="D2">
-        <v>-0.002479448085884201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00961013174714064</v>
+      </c>
+      <c r="E2">
+        <v>-0.002115992362996669</v>
+      </c>
+      <c r="F2">
+        <v>0.01152482892963693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09823986553427158</v>
+        <v>0.09398279937432491</v>
       </c>
       <c r="C4">
-        <v>0.02105321239082468</v>
+        <v>-0.01457260102066283</v>
       </c>
       <c r="D4">
-        <v>-0.06156587264603201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08384197793942827</v>
+      </c>
+      <c r="E4">
+        <v>-0.02780261574241516</v>
+      </c>
+      <c r="F4">
+        <v>-0.03184388142654548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1471930237957692</v>
+        <v>0.1594558159875106</v>
       </c>
       <c r="C6">
-        <v>0.02698474535072722</v>
+        <v>-0.02679801285770168</v>
       </c>
       <c r="D6">
-        <v>0.02426329240961461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02372022492895546</v>
+      </c>
+      <c r="E6">
+        <v>-0.0104893369523125</v>
+      </c>
+      <c r="F6">
+        <v>-0.04382722311405395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0659108695847022</v>
+        <v>0.06358348205497438</v>
       </c>
       <c r="C7">
-        <v>0.003307097072900931</v>
+        <v>0.001666063978448313</v>
       </c>
       <c r="D7">
-        <v>-0.03636372645574117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05258669747391003</v>
+      </c>
+      <c r="E7">
+        <v>-0.01149940554933346</v>
+      </c>
+      <c r="F7">
+        <v>-0.04625098465658985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06588731859976506</v>
+        <v>0.05768864294957851</v>
       </c>
       <c r="C8">
-        <v>-0.009533043996399157</v>
+        <v>0.01321484796938777</v>
       </c>
       <c r="D8">
-        <v>-0.01279097434518337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03221075818475542</v>
+      </c>
+      <c r="E8">
+        <v>-0.01796682917895367</v>
+      </c>
+      <c r="F8">
+        <v>0.02588136403614841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07628423417732468</v>
+        <v>0.07083797726828443</v>
       </c>
       <c r="C9">
-        <v>0.01748419463199797</v>
+        <v>-0.01024463159761952</v>
       </c>
       <c r="D9">
-        <v>-0.06353542429309293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08703735652141503</v>
+      </c>
+      <c r="E9">
+        <v>-0.02260032379177657</v>
+      </c>
+      <c r="F9">
+        <v>-0.04596313566078036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07923902588499376</v>
+        <v>0.09129249561939697</v>
       </c>
       <c r="C10">
-        <v>0.01181933218526618</v>
+        <v>-0.0209601569254306</v>
       </c>
       <c r="D10">
-        <v>0.1649064150096216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1640553055964592</v>
+      </c>
+      <c r="E10">
+        <v>0.03129377676425673</v>
+      </c>
+      <c r="F10">
+        <v>0.05671053703259186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09569179617477873</v>
+        <v>0.08829960869886341</v>
       </c>
       <c r="C11">
-        <v>0.01827495041990275</v>
+        <v>-0.01035663727188857</v>
       </c>
       <c r="D11">
-        <v>-0.09074553607599646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169948612748314</v>
+      </c>
+      <c r="E11">
+        <v>-0.04502311569399417</v>
+      </c>
+      <c r="F11">
+        <v>-0.02318085908267103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1020585668452668</v>
+        <v>0.09202075887980818</v>
       </c>
       <c r="C12">
-        <v>0.01620893675944677</v>
+        <v>-0.007700915559736243</v>
       </c>
       <c r="D12">
-        <v>-0.09434944773431274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1314915424453162</v>
+      </c>
+      <c r="E12">
+        <v>-0.04457510211243051</v>
+      </c>
+      <c r="F12">
+        <v>-0.03065643726921518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0423932972397699</v>
+        <v>0.04140896147283736</v>
       </c>
       <c r="C13">
-        <v>0.006186034767426535</v>
+        <v>-0.002351948314277311</v>
       </c>
       <c r="D13">
-        <v>-0.02956480799621797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05278681966880983</v>
+      </c>
+      <c r="E13">
+        <v>0.00492089803975075</v>
+      </c>
+      <c r="F13">
+        <v>-0.002078654401325977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02159634637721796</v>
+        <v>0.02399936862607154</v>
       </c>
       <c r="C14">
-        <v>0.01529325172114328</v>
+        <v>-0.01380305663979287</v>
       </c>
       <c r="D14">
-        <v>-0.02140334955942696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03346607075315656</v>
+      </c>
+      <c r="E14">
+        <v>-0.01847377346454589</v>
+      </c>
+      <c r="F14">
+        <v>-0.01360023402898235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03629771991790186</v>
+        <v>0.03293430279082383</v>
       </c>
       <c r="C15">
-        <v>0.008024732498683684</v>
+        <v>-0.00468004945402985</v>
       </c>
       <c r="D15">
-        <v>-0.02489750039146608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0451409200143793</v>
+      </c>
+      <c r="E15">
+        <v>-0.005606051313932109</v>
+      </c>
+      <c r="F15">
+        <v>-0.02515676079536725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08191793494877903</v>
+        <v>0.07435804546955725</v>
       </c>
       <c r="C16">
-        <v>0.009026452324876458</v>
+        <v>-0.0008980189477601512</v>
       </c>
       <c r="D16">
-        <v>-0.09458892916773182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276207500409856</v>
+      </c>
+      <c r="E16">
+        <v>-0.05921371530497469</v>
+      </c>
+      <c r="F16">
+        <v>-0.02753867405291536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006603163804834387</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001941508945408194</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001507716151480409</v>
+      </c>
+      <c r="E17">
+        <v>-0.001057281048571979</v>
+      </c>
+      <c r="F17">
+        <v>0.001920236207506602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01456778333276804</v>
+        <v>0.03628107632218525</v>
       </c>
       <c r="C18">
-        <v>-0.003101763282645546</v>
+        <v>0.002956292900777531</v>
       </c>
       <c r="D18">
-        <v>-0.03206855461072939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0156499923818005</v>
+      </c>
+      <c r="E18">
+        <v>0.008923310080983038</v>
+      </c>
+      <c r="F18">
+        <v>0.008065992225971191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06586003708689964</v>
+        <v>0.06177842888059404</v>
       </c>
       <c r="C20">
-        <v>0.006689358782778076</v>
+        <v>1.568114319610579e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04730433085397865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0778459762067495</v>
+      </c>
+      <c r="E20">
+        <v>-0.0551821581412177</v>
+      </c>
+      <c r="F20">
+        <v>-0.02674585426061503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04500518218838919</v>
+        <v>0.0407564436868177</v>
       </c>
       <c r="C21">
-        <v>0.01045139286825098</v>
+        <v>-0.006375708026856802</v>
       </c>
       <c r="D21">
-        <v>-0.01875924443472439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03823529559270616</v>
+      </c>
+      <c r="E21">
+        <v>0.001321585380923528</v>
+      </c>
+      <c r="F21">
+        <v>0.0249761671922483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04144982680817906</v>
+        <v>0.04341615195216237</v>
       </c>
       <c r="C22">
-        <v>0.0006816940874592873</v>
+        <v>-0.0003679068551001105</v>
       </c>
       <c r="D22">
-        <v>0.009931542418928777</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004669815711283547</v>
+      </c>
+      <c r="E22">
+        <v>-0.03747953697515048</v>
+      </c>
+      <c r="F22">
+        <v>0.03716256629222058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04141235471616238</v>
+        <v>0.04339189108186493</v>
       </c>
       <c r="C23">
-        <v>0.0006722856679728703</v>
+        <v>-0.0003593948515494268</v>
       </c>
       <c r="D23">
-        <v>0.009912825767464042</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004685649362684324</v>
+      </c>
+      <c r="E23">
+        <v>-0.03766182859269385</v>
+      </c>
+      <c r="F23">
+        <v>0.03712204629802571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08750964480003941</v>
+        <v>0.08012739944252451</v>
       </c>
       <c r="C24">
-        <v>0.009373734040744383</v>
+        <v>-0.001612122532883006</v>
       </c>
       <c r="D24">
-        <v>-0.09944293807561937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203236863449912</v>
+      </c>
+      <c r="E24">
+        <v>-0.04730606513213077</v>
+      </c>
+      <c r="F24">
+        <v>-0.02941774284045993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09228321358686571</v>
+        <v>0.08505938320023645</v>
       </c>
       <c r="C25">
-        <v>0.01177858854612839</v>
+        <v>-0.004206346157319228</v>
       </c>
       <c r="D25">
-        <v>-0.08563518988170078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1097552033667012</v>
+      </c>
+      <c r="E25">
+        <v>-0.0312857020757397</v>
+      </c>
+      <c r="F25">
+        <v>-0.02704914216634952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0587127494086943</v>
+        <v>0.05899804693290327</v>
       </c>
       <c r="C26">
-        <v>0.01830616646085641</v>
+        <v>-0.01446167704075887</v>
       </c>
       <c r="D26">
-        <v>-0.01521680833119627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04111449656282991</v>
+      </c>
+      <c r="E26">
+        <v>-0.02812458001895955</v>
+      </c>
+      <c r="F26">
+        <v>0.006834420271086401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1271550786350257</v>
+        <v>0.1418907882893112</v>
       </c>
       <c r="C28">
-        <v>0.00997531029935869</v>
+        <v>-0.02241554974925818</v>
       </c>
       <c r="D28">
-        <v>0.2755859015872686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2617625864291357</v>
+      </c>
+      <c r="E28">
+        <v>0.06685750806613405</v>
+      </c>
+      <c r="F28">
+        <v>-0.003404469898825524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02709082140841484</v>
+        <v>0.02871467084317754</v>
       </c>
       <c r="C29">
-        <v>0.0100029822542571</v>
+        <v>-0.008695328560363352</v>
       </c>
       <c r="D29">
-        <v>-0.01952164686264578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03140938500420323</v>
+      </c>
+      <c r="E29">
+        <v>-0.01374441346773902</v>
+      </c>
+      <c r="F29">
+        <v>0.01289097509440022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0691287574932328</v>
+        <v>0.05897900023697845</v>
       </c>
       <c r="C30">
-        <v>0.01055473161690295</v>
+        <v>-0.0025343041807215</v>
       </c>
       <c r="D30">
-        <v>-0.05954196439104809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08923016007072669</v>
+      </c>
+      <c r="E30">
+        <v>-0.01415882009286845</v>
+      </c>
+      <c r="F30">
+        <v>-0.07703756113535994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05187358038829204</v>
+        <v>0.05116623056492763</v>
       </c>
       <c r="C31">
-        <v>0.01692590607736622</v>
+        <v>-0.01555884323860987</v>
       </c>
       <c r="D31">
-        <v>-0.01949176227289183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02472319295602593</v>
+      </c>
+      <c r="E31">
+        <v>-0.02855856666316512</v>
+      </c>
+      <c r="F31">
+        <v>0.0006212877420930982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04773510887200196</v>
+        <v>0.05139542213561728</v>
       </c>
       <c r="C32">
-        <v>0.002148846594342612</v>
+        <v>0.001834516665593933</v>
       </c>
       <c r="D32">
-        <v>-0.01961975517890635</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03631318925690071</v>
+      </c>
+      <c r="E32">
+        <v>-0.03416412574193847</v>
+      </c>
+      <c r="F32">
+        <v>-0.003913498542610282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09416893248591192</v>
+        <v>0.08854763761518961</v>
       </c>
       <c r="C33">
-        <v>0.01423110030827079</v>
+        <v>-0.006464422891061161</v>
       </c>
       <c r="D33">
-        <v>-0.07251905995647751</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1025016785404488</v>
+      </c>
+      <c r="E33">
+        <v>-0.04308795926195583</v>
+      </c>
+      <c r="F33">
+        <v>-0.03923063716507047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07470603776735406</v>
+        <v>0.06794328764379982</v>
       </c>
       <c r="C34">
-        <v>0.01643104752861092</v>
+        <v>-0.009985667470205944</v>
       </c>
       <c r="D34">
-        <v>-0.07898682360101439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097059779702751</v>
+      </c>
+      <c r="E34">
+        <v>-0.0332788622817692</v>
+      </c>
+      <c r="F34">
+        <v>-0.03298681363519539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02441733042832538</v>
+        <v>0.02542848222227134</v>
       </c>
       <c r="C35">
-        <v>0.002632811309317079</v>
+        <v>-0.00254568412058168</v>
       </c>
       <c r="D35">
-        <v>-0.004840853602497531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01195054865339755</v>
+      </c>
+      <c r="E35">
+        <v>-0.01230159088063625</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008723241100012269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.027032805786102</v>
+        <v>0.02763930371450791</v>
       </c>
       <c r="C36">
-        <v>0.008142115034457652</v>
+        <v>-0.006797897281300272</v>
       </c>
       <c r="D36">
-        <v>-0.03869680939772337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04007107325386183</v>
+      </c>
+      <c r="E36">
+        <v>-0.01651108025812282</v>
+      </c>
+      <c r="F36">
+        <v>-0.01535264878054166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004235363963390716</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006469138351854846</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002395433713742543</v>
+      </c>
+      <c r="E37">
+        <v>0.001012275646260409</v>
+      </c>
+      <c r="F37">
+        <v>0.00167577458288609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1210657250208474</v>
+        <v>0.1044231544344665</v>
       </c>
       <c r="C39">
-        <v>0.02490150154717379</v>
+        <v>-0.01556419631782184</v>
       </c>
       <c r="D39">
-        <v>-0.1333379645702787</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1540908627730731</v>
+      </c>
+      <c r="E39">
+        <v>-0.05788906168635607</v>
+      </c>
+      <c r="F39">
+        <v>-0.03090085483481705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03800451025113599</v>
+        <v>0.0414681324299788</v>
       </c>
       <c r="C40">
-        <v>0.009999492508818549</v>
+        <v>-0.007125589813944287</v>
       </c>
       <c r="D40">
-        <v>-0.008395396583557948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03083718908240659</v>
+      </c>
+      <c r="E40">
+        <v>-0.001982162790689346</v>
+      </c>
+      <c r="F40">
+        <v>0.01749834741427168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02500490502315118</v>
+        <v>0.02769323254205037</v>
       </c>
       <c r="C41">
-        <v>0.007204644867641054</v>
+        <v>-0.006795354918762154</v>
       </c>
       <c r="D41">
-        <v>-0.009629224606771595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01099484058466393</v>
+      </c>
+      <c r="E41">
+        <v>-0.01223742438836311</v>
+      </c>
+      <c r="F41">
+        <v>0.005218425658445521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.042632508940907</v>
+        <v>0.04064104042835101</v>
       </c>
       <c r="C43">
-        <v>0.00842190576530581</v>
+        <v>-0.007003018847953077</v>
       </c>
       <c r="D43">
-        <v>-0.01146862372596444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0190410560825358</v>
+      </c>
+      <c r="E43">
+        <v>-0.02553575655375532</v>
+      </c>
+      <c r="F43">
+        <v>0.01205866648558481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08286280779066932</v>
+        <v>0.07970161878474073</v>
       </c>
       <c r="C44">
-        <v>0.02752775959894875</v>
+        <v>-0.01929953996014745</v>
       </c>
       <c r="D44">
-        <v>-0.06713881046588298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0974832063605279</v>
+      </c>
+      <c r="E44">
+        <v>-0.05870310966373872</v>
+      </c>
+      <c r="F44">
+        <v>-0.1567713983558204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02070847115481164</v>
+        <v>0.02318852467911465</v>
       </c>
       <c r="C46">
-        <v>0.003723807177857784</v>
+        <v>-0.003231261447793121</v>
       </c>
       <c r="D46">
-        <v>-0.006799280102041397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01348877717812742</v>
+      </c>
+      <c r="E46">
+        <v>-0.0260014169082482</v>
+      </c>
+      <c r="F46">
+        <v>0.005679620380761588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05401208681370336</v>
+        <v>0.05282034932237169</v>
       </c>
       <c r="C47">
-        <v>0.004676862853551096</v>
+        <v>-0.003674544182781625</v>
       </c>
       <c r="D47">
-        <v>-0.00551098758600968</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01240227160944602</v>
+      </c>
+      <c r="E47">
+        <v>-0.02431031139510669</v>
+      </c>
+      <c r="F47">
+        <v>0.03068176311552022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.05029243731379438</v>
+        <v>0.0503103293691831</v>
       </c>
       <c r="C48">
-        <v>0.005387676278600946</v>
+        <v>-0.002129132665457243</v>
       </c>
       <c r="D48">
-        <v>-0.03991328553057077</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05083776974531205</v>
+      </c>
+      <c r="E48">
+        <v>0.004859654185138197</v>
+      </c>
+      <c r="F48">
+        <v>-0.009540202161954062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2006267987830424</v>
+        <v>0.1997379292027031</v>
       </c>
       <c r="C49">
-        <v>0.02002979177967108</v>
+        <v>-0.01888685797949654</v>
       </c>
       <c r="D49">
-        <v>0.01784674764176286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007221380785517444</v>
+      </c>
+      <c r="E49">
+        <v>-0.02958281809552228</v>
+      </c>
+      <c r="F49">
+        <v>-0.03955680019786607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0509280971438045</v>
+        <v>0.05149005898604311</v>
       </c>
       <c r="C50">
-        <v>0.01303746655326548</v>
+        <v>-0.01126542632553785</v>
       </c>
       <c r="D50">
-        <v>-0.01846117603725893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02417700859450422</v>
+      </c>
+      <c r="E50">
+        <v>-0.02980348226104446</v>
+      </c>
+      <c r="F50">
+        <v>-0.01066834123660881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1561133413760673</v>
+        <v>0.1489828526344224</v>
       </c>
       <c r="C52">
-        <v>0.01893138525016719</v>
+        <v>-0.01747543343749745</v>
       </c>
       <c r="D52">
-        <v>-0.04835319774001978</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04170409911889276</v>
+      </c>
+      <c r="E52">
+        <v>-0.02008111955432528</v>
+      </c>
+      <c r="F52">
+        <v>-0.04432181254279419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1716158911227516</v>
+        <v>0.1711514535279425</v>
       </c>
       <c r="C53">
-        <v>0.01867203483325922</v>
+        <v>-0.01991242644043221</v>
       </c>
       <c r="D53">
-        <v>-0.0163233026477871</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005123155338869677</v>
+      </c>
+      <c r="E53">
+        <v>-0.02852140497901698</v>
+      </c>
+      <c r="F53">
+        <v>-0.07482252385758952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02040253625027253</v>
+        <v>0.02064754541286003</v>
       </c>
       <c r="C54">
-        <v>0.01263483108663688</v>
+        <v>-0.01126249613462562</v>
       </c>
       <c r="D54">
-        <v>-0.02501794796321802</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03443518371075876</v>
+      </c>
+      <c r="E54">
+        <v>-0.02185047318901047</v>
+      </c>
+      <c r="F54">
+        <v>0.004388218121329916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1146733268557843</v>
+        <v>0.1146776690672388</v>
       </c>
       <c r="C55">
-        <v>0.01714474189455592</v>
+        <v>-0.01750715603022208</v>
       </c>
       <c r="D55">
-        <v>-0.01146695314671271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007473136217848156</v>
+      </c>
+      <c r="E55">
+        <v>-0.02352641994879061</v>
+      </c>
+      <c r="F55">
+        <v>-0.0478049202813381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1786105054212418</v>
+        <v>0.1767833504368828</v>
       </c>
       <c r="C56">
-        <v>0.0162341903924411</v>
+        <v>-0.01782973701202254</v>
       </c>
       <c r="D56">
-        <v>-0.009237918102609715</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002342179769290724</v>
+      </c>
+      <c r="E56">
+        <v>-0.03278963980343962</v>
+      </c>
+      <c r="F56">
+        <v>-0.05503293275399936</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04845885621924465</v>
+        <v>0.04486035107151821</v>
       </c>
       <c r="C58">
-        <v>0.005670172598569223</v>
+        <v>0.0004925159402403837</v>
       </c>
       <c r="D58">
-        <v>-0.05757575895343631</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07072855109063823</v>
+      </c>
+      <c r="E58">
+        <v>-0.03158491527376338</v>
+      </c>
+      <c r="F58">
+        <v>0.03645896530504724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1570355731869525</v>
+        <v>0.1673863838379862</v>
       </c>
       <c r="C59">
-        <v>0.01183931163409104</v>
+        <v>-0.02260662780437714</v>
       </c>
       <c r="D59">
-        <v>0.2284876730020504</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2179137185628842</v>
+      </c>
+      <c r="E59">
+        <v>0.04563078839485026</v>
+      </c>
+      <c r="F59">
+        <v>0.0348031689343634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2383657826951207</v>
+        <v>0.231736687761076</v>
       </c>
       <c r="C60">
-        <v>0.0002824025202826434</v>
+        <v>0.002116742753857543</v>
       </c>
       <c r="D60">
-        <v>-0.04645329194160149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03939115484479738</v>
+      </c>
+      <c r="E60">
+        <v>-0.006888771097992146</v>
+      </c>
+      <c r="F60">
+        <v>-6.984475630638079e-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09158982467034617</v>
+        <v>0.08016347020598921</v>
       </c>
       <c r="C61">
-        <v>0.01862855906947316</v>
+        <v>-0.01112681378032133</v>
       </c>
       <c r="D61">
-        <v>-0.09119749783392787</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1174139920343057</v>
+      </c>
+      <c r="E61">
+        <v>-0.03793916366139729</v>
+      </c>
+      <c r="F61">
+        <v>-0.01449699106006586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1710595266042532</v>
+        <v>0.1695371204724756</v>
       </c>
       <c r="C62">
-        <v>0.02048011257917012</v>
+        <v>-0.02082045561083086</v>
       </c>
       <c r="D62">
-        <v>-0.003599260714661079</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005075548758677928</v>
+      </c>
+      <c r="E62">
+        <v>-0.03301114223083335</v>
+      </c>
+      <c r="F62">
+        <v>-0.03736233740734413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04550240655191069</v>
+        <v>0.04557069348466335</v>
       </c>
       <c r="C63">
-        <v>0.006216372349506793</v>
+        <v>-0.001593422436634931</v>
       </c>
       <c r="D63">
-        <v>-0.04008999673991847</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05897686310405117</v>
+      </c>
+      <c r="E63">
+        <v>-0.02280028372025817</v>
+      </c>
+      <c r="F63">
+        <v>-0.003394004012742515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1120751336261291</v>
+        <v>0.1107781363531733</v>
       </c>
       <c r="C64">
-        <v>0.0146934979458779</v>
+        <v>-0.01135921652282634</v>
       </c>
       <c r="D64">
-        <v>-0.03026494983988957</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04368559444357226</v>
+      </c>
+      <c r="E64">
+        <v>-0.02219577063145465</v>
+      </c>
+      <c r="F64">
+        <v>-0.02606380970959716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1378895851572764</v>
+        <v>0.1507967423686747</v>
       </c>
       <c r="C65">
-        <v>0.03243575649368296</v>
+        <v>-0.03424245477259081</v>
       </c>
       <c r="D65">
-        <v>0.04828949081697301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04495376945916184</v>
+      </c>
+      <c r="E65">
+        <v>-0.005274326416523529</v>
+      </c>
+      <c r="F65">
+        <v>-0.03966505425954772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1452190129796173</v>
+        <v>0.1239735673305904</v>
       </c>
       <c r="C66">
-        <v>0.02290049805855086</v>
+        <v>-0.01349587538602505</v>
       </c>
       <c r="D66">
-        <v>-0.1096077262004372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.142146783713274</v>
+      </c>
+      <c r="E66">
+        <v>-0.06357395505481331</v>
+      </c>
+      <c r="F66">
+        <v>-0.03597587489097659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06430082878730542</v>
+        <v>0.05718894437895634</v>
       </c>
       <c r="C67">
-        <v>0.0054485654267662</v>
+        <v>-0.002732990340489077</v>
       </c>
       <c r="D67">
-        <v>-0.05322618589194261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05560249133834484</v>
+      </c>
+      <c r="E67">
+        <v>-0.01638718419776423</v>
+      </c>
+      <c r="F67">
+        <v>0.02921440219949556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09897356550366325</v>
+        <v>0.1162450535996318</v>
       </c>
       <c r="C68">
-        <v>0.02029269167349002</v>
+        <v>-0.0331986549365963</v>
       </c>
       <c r="D68">
-        <v>0.2753592186140319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2620344377774943</v>
+      </c>
+      <c r="E68">
+        <v>0.08696522391582415</v>
+      </c>
+      <c r="F68">
+        <v>0.0003532389511575141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04108213764644985</v>
+        <v>0.03908457745047074</v>
       </c>
       <c r="C69">
-        <v>0.001502714935118766</v>
+        <v>-0.001215472187149572</v>
       </c>
       <c r="D69">
-        <v>-0.007401428373174788</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008532302062869167</v>
+      </c>
+      <c r="E69">
+        <v>-0.02403464093849698</v>
+      </c>
+      <c r="F69">
+        <v>-0.001897998161928547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06565404496619291</v>
+        <v>0.06647808037345272</v>
       </c>
       <c r="C70">
-        <v>-0.02365501102136773</v>
+        <v>0.02753001688907651</v>
       </c>
       <c r="D70">
-        <v>0.0138678723108305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02481408062030357</v>
+      </c>
+      <c r="E70">
+        <v>0.03056909895091052</v>
+      </c>
+      <c r="F70">
+        <v>0.1797986898720548</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1162666647120925</v>
+        <v>0.1359757500362179</v>
       </c>
       <c r="C71">
-        <v>0.02380920464801351</v>
+        <v>-0.03750147945450057</v>
       </c>
       <c r="D71">
-        <v>0.2882868085690553</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2730830464896111</v>
+      </c>
+      <c r="E71">
+        <v>0.09702633054120421</v>
+      </c>
+      <c r="F71">
+        <v>-0.00419955001783368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1380527545802261</v>
+        <v>0.1425240884345702</v>
       </c>
       <c r="C72">
-        <v>0.02697310211602872</v>
+        <v>-0.02730079875452789</v>
       </c>
       <c r="D72">
-        <v>2.835538789241796e-05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003330810411423404</v>
+      </c>
+      <c r="E72">
+        <v>-0.03666437932710501</v>
+      </c>
+      <c r="F72">
+        <v>-0.03312412618055575</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2061351979106393</v>
+        <v>0.2042531464274267</v>
       </c>
       <c r="C73">
-        <v>0.01570044201588537</v>
+        <v>-0.01302219769193948</v>
       </c>
       <c r="D73">
-        <v>-0.01647580227167559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01670360434278511</v>
+      </c>
+      <c r="E73">
+        <v>-0.06215793375863581</v>
+      </c>
+      <c r="F73">
+        <v>-0.03946372709122364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09180847686098333</v>
+        <v>0.09480779091327397</v>
       </c>
       <c r="C74">
-        <v>0.01293586041884168</v>
+        <v>-0.01338529233970396</v>
       </c>
       <c r="D74">
-        <v>-0.02256542556686479</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01688594918837776</v>
+      </c>
+      <c r="E74">
+        <v>-0.04352676486698541</v>
+      </c>
+      <c r="F74">
+        <v>-0.05754755777137725</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1341746432345572</v>
+        <v>0.1273910219665612</v>
       </c>
       <c r="C75">
-        <v>0.02936616986940614</v>
+        <v>-0.02835397472214394</v>
       </c>
       <c r="D75">
-        <v>-0.02975361184116312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02989932838130089</v>
+      </c>
+      <c r="E75">
+        <v>-0.0573336657115389</v>
+      </c>
+      <c r="F75">
+        <v>-0.02436388977799929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08410445352722057</v>
+        <v>0.08908841256368716</v>
       </c>
       <c r="C77">
-        <v>0.01539539269078036</v>
+        <v>-0.008056473400769875</v>
       </c>
       <c r="D77">
-        <v>-0.09122133462759527</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1129415482545193</v>
+      </c>
+      <c r="E77">
+        <v>-0.04128734055253582</v>
+      </c>
+      <c r="F77">
+        <v>-0.03395025808559454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1058400587317805</v>
+        <v>0.100371662103297</v>
       </c>
       <c r="C78">
-        <v>0.0472007899652108</v>
+        <v>-0.03919778064435191</v>
       </c>
       <c r="D78">
-        <v>-0.09297004827286651</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1140308514276641</v>
+      </c>
+      <c r="E78">
+        <v>-0.0731918650212947</v>
+      </c>
+      <c r="F78">
+        <v>-0.04780786976101075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1649593150448534</v>
+        <v>0.1636542214865827</v>
       </c>
       <c r="C79">
-        <v>0.02348136371055492</v>
+        <v>-0.02311296759538194</v>
       </c>
       <c r="D79">
-        <v>-0.01202090692623183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01441990903335459</v>
+      </c>
+      <c r="E79">
+        <v>-0.04603356111267162</v>
+      </c>
+      <c r="F79">
+        <v>-0.01343012328909884</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08795156315952907</v>
+        <v>0.08192324285312433</v>
       </c>
       <c r="C80">
-        <v>0.002005515651127541</v>
+        <v>0.0009445004539322975</v>
       </c>
       <c r="D80">
-        <v>-0.04212717095977961</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05631164294724462</v>
+      </c>
+      <c r="E80">
+        <v>-0.03498924292877086</v>
+      </c>
+      <c r="F80">
+        <v>0.01869227070534201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1181893859360037</v>
+        <v>0.1184005681906949</v>
       </c>
       <c r="C81">
-        <v>0.03163650220584066</v>
+        <v>-0.03187049452746426</v>
       </c>
       <c r="D81">
-        <v>-0.02817189439122186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0158609623269093</v>
+      </c>
+      <c r="E81">
+        <v>-0.05714558468805282</v>
+      </c>
+      <c r="F81">
+        <v>-0.02133113214778728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1645534395781541</v>
+        <v>0.1655177956542034</v>
       </c>
       <c r="C82">
-        <v>0.02399156383109605</v>
+        <v>-0.02510597355716833</v>
       </c>
       <c r="D82">
-        <v>-0.01497006036823089</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004326080382214578</v>
+      </c>
+      <c r="E82">
+        <v>-0.02597117609500999</v>
+      </c>
+      <c r="F82">
+        <v>-0.08197806407446351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06965790558180307</v>
+        <v>0.05867923944734181</v>
       </c>
       <c r="C83">
-        <v>0.006535367006452402</v>
+        <v>-0.002777801754711542</v>
       </c>
       <c r="D83">
-        <v>-0.03127691652281879</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05045906577903036</v>
+      </c>
+      <c r="E83">
+        <v>-0.003218908618652135</v>
+      </c>
+      <c r="F83">
+        <v>0.02856890505902912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0658486572292207</v>
+        <v>0.05996983881227028</v>
       </c>
       <c r="C84">
-        <v>0.01526799514741213</v>
+        <v>-0.01141632144335254</v>
       </c>
       <c r="D84">
-        <v>-0.05075286756227145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06284654848354873</v>
+      </c>
+      <c r="E84">
+        <v>-0.006969053057053146</v>
+      </c>
+      <c r="F84">
+        <v>-0.005853658368917225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1374609586464425</v>
+        <v>0.1354721999437024</v>
       </c>
       <c r="C85">
-        <v>0.02810804274146759</v>
+        <v>-0.02833789242608514</v>
       </c>
       <c r="D85">
-        <v>-0.01593850849202022</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009460582696274054</v>
+      </c>
+      <c r="E85">
+        <v>-0.036199104838256</v>
+      </c>
+      <c r="F85">
+        <v>-0.04750518584834085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1034052466025233</v>
+        <v>0.09480637993953012</v>
       </c>
       <c r="C86">
-        <v>-0.001713066595332771</v>
+        <v>0.006137062107534656</v>
       </c>
       <c r="D86">
-        <v>0.01088201378049366</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04811187705953118</v>
+      </c>
+      <c r="E86">
+        <v>-0.24583335344894</v>
+      </c>
+      <c r="F86">
+        <v>0.9025407024079444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1020206929644303</v>
+        <v>0.09456216010153834</v>
       </c>
       <c r="C87">
-        <v>0.02938361289065616</v>
+        <v>-0.01932039799992766</v>
       </c>
       <c r="D87">
-        <v>-0.05956107351532204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0934744563600939</v>
+      </c>
+      <c r="E87">
+        <v>0.05466381797008942</v>
+      </c>
+      <c r="F87">
+        <v>-0.04439129879085351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06121026079611943</v>
+        <v>0.06047768956727696</v>
       </c>
       <c r="C88">
-        <v>0.005269933438898851</v>
+        <v>-0.002161300865062866</v>
       </c>
       <c r="D88">
-        <v>-0.05380079216057671</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0496381281282912</v>
+      </c>
+      <c r="E88">
+        <v>-0.02385726187621807</v>
+      </c>
+      <c r="F88">
+        <v>-0.01582448485075345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.112409620502397</v>
+        <v>0.1283776624922056</v>
       </c>
       <c r="C89">
-        <v>0.001822245002626307</v>
+        <v>-0.01328736454397693</v>
       </c>
       <c r="D89">
-        <v>0.2670030853680835</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2458077158981561</v>
+      </c>
+      <c r="E89">
+        <v>0.0885327460134499</v>
+      </c>
+      <c r="F89">
+        <v>0.01431431999707039</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1275472000584828</v>
+        <v>0.1508989102652272</v>
       </c>
       <c r="C90">
-        <v>0.02051982331913748</v>
+        <v>-0.03429384916227888</v>
       </c>
       <c r="D90">
-        <v>0.2778188207767761</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2714032516125832</v>
+      </c>
+      <c r="E90">
+        <v>0.1132084958673455</v>
+      </c>
+      <c r="F90">
+        <v>0.01264506182824389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1190398122978147</v>
+        <v>0.1214766978469861</v>
       </c>
       <c r="C91">
-        <v>0.01868047447622168</v>
+        <v>-0.02013874405503464</v>
       </c>
       <c r="D91">
-        <v>0.006856305720263698</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01579237987512647</v>
+      </c>
+      <c r="E91">
+        <v>-0.05542260828343687</v>
+      </c>
+      <c r="F91">
+        <v>-0.002135179348954439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1334888905356303</v>
+        <v>0.1472162492351523</v>
       </c>
       <c r="C92">
-        <v>0.009941394991788989</v>
+        <v>-0.02474750156340191</v>
       </c>
       <c r="D92">
-        <v>0.3145693888459046</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911358368593428</v>
+      </c>
+      <c r="E92">
+        <v>0.1002295625453515</v>
+      </c>
+      <c r="F92">
+        <v>0.01891209610186455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1316239359951288</v>
+        <v>0.1508426246933548</v>
       </c>
       <c r="C93">
-        <v>0.01593419757585364</v>
+        <v>-0.02922800144955688</v>
       </c>
       <c r="D93">
-        <v>0.2735480339208016</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2676924219980542</v>
+      </c>
+      <c r="E93">
+        <v>0.07708326789776891</v>
+      </c>
+      <c r="F93">
+        <v>0.003470515610548831</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1347553322056836</v>
+        <v>0.1285039036658293</v>
       </c>
       <c r="C94">
-        <v>0.02658174198310761</v>
+        <v>-0.02480395498152761</v>
       </c>
       <c r="D94">
-        <v>-0.04423546520695432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04139294256804339</v>
+      </c>
+      <c r="E94">
+        <v>-0.05721415316192482</v>
+      </c>
+      <c r="F94">
+        <v>-0.03717739064320171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.129800969275555</v>
+        <v>0.1270514338800753</v>
       </c>
       <c r="C95">
-        <v>0.01096113569233174</v>
+        <v>-0.003321080386536033</v>
       </c>
       <c r="D95">
-        <v>-0.06550383005616858</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09511955366334801</v>
+      </c>
+      <c r="E95">
+        <v>-0.05047375743708537</v>
+      </c>
+      <c r="F95">
+        <v>0.008534401218868629</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1154989734093736</v>
+        <v>0.1098178716467897</v>
       </c>
       <c r="C96">
-        <v>-0.9875443552766068</v>
+        <v>0.9870113303887895</v>
       </c>
       <c r="D96">
-        <v>0.01030854700445278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05170338373620148</v>
+      </c>
+      <c r="E96">
+        <v>-0.05207154932296437</v>
+      </c>
+      <c r="F96">
+        <v>-0.04324405422910402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1914207968172783</v>
+        <v>0.1910653865501716</v>
       </c>
       <c r="C97">
-        <v>-0.006906235509481038</v>
+        <v>0.006729254376348502</v>
       </c>
       <c r="D97">
-        <v>0.01600075281103834</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01956913727321948</v>
+      </c>
+      <c r="E97">
+        <v>-0.02348175895007635</v>
+      </c>
+      <c r="F97">
+        <v>0.09027672220375646</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1983679258836743</v>
+        <v>0.2059875178124819</v>
       </c>
       <c r="C98">
-        <v>0.01015401932095517</v>
+        <v>-0.007150789319817529</v>
       </c>
       <c r="D98">
-        <v>-0.01600181796146044</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0131402749161097</v>
+      </c>
+      <c r="E98">
+        <v>0.07536876033941915</v>
+      </c>
+      <c r="F98">
+        <v>0.09252142626765303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05720027314885059</v>
+        <v>0.05490108273133251</v>
       </c>
       <c r="C99">
-        <v>-0.001997328396575304</v>
+        <v>0.004494616974592541</v>
       </c>
       <c r="D99">
-        <v>-0.02262137182769974</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03911493047578548</v>
+      </c>
+      <c r="E99">
+        <v>-0.02164506156087167</v>
+      </c>
+      <c r="F99">
+        <v>-0.003873772970721513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1443578908738755</v>
+        <v>0.1286062665887633</v>
       </c>
       <c r="C100">
-        <v>-0.03712576421868261</v>
+        <v>0.05315096644093064</v>
       </c>
       <c r="D100">
-        <v>-0.4297771595253045</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3451753345886862</v>
+      </c>
+      <c r="E100">
+        <v>0.8833848746877633</v>
+      </c>
+      <c r="F100">
+        <v>0.1725522658899963</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02691094556858793</v>
+        <v>0.02865425960419216</v>
       </c>
       <c r="C101">
-        <v>0.009947198921402559</v>
+        <v>-0.008712466509671619</v>
       </c>
       <c r="D101">
-        <v>-0.01903386338296482</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03105977674386854</v>
+      </c>
+      <c r="E101">
+        <v>-0.01319327425466567</v>
+      </c>
+      <c r="F101">
+        <v>0.01410937430997143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
